--- a/protobuff/backup/Privilege/Privilege.xlsx
+++ b/protobuff/backup/Privilege/Privilege.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42620" yWindow="1140" windowWidth="28620" windowHeight="18240" tabRatio="500"/>
+    <workbookView xWindow="42615" yWindow="1140" windowWidth="28620" windowHeight="18240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="privilegeCommonTips" sheetId="5" r:id="rId1"/>
@@ -150,15 +155,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,7 +172,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CCCC"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -252,18 +263,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="64">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -296,41 +308,48 @@
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -658,115 +677,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -774,10 +794,10 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
